--- a/Symal/23001/1630-P200-SYM-QAC-ITP-0002 Cut FloorTopsoil Stripping/matrix.xlsx
+++ b/Symal/23001/1630-P200-SYM-QAC-ITP-0002 Cut FloorTopsoil Stripping/matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\23001\1630-P200-SYM-QAC-ITP-0002 Cut FloorTopsoil Stripping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42055AF5-B276-4F97-A78F-BCD6FBF95AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38592F18-5116-4015-A3F3-5898571CB83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1470" windowWidth="28740" windowHeight="19290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9255" yWindow="1095" windowWidth="28740" windowHeight="19290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t xml:space="preserve">CBR Test Result </t>
+  </si>
+  <si>
+    <t>1.3.1 - Surveyor Report Reference</t>
+  </si>
+  <si>
+    <t>2.0.1 - Incoming Material Docket</t>
+  </si>
+  <si>
+    <t>2.0 Construction</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1075,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,6 +1253,12 @@
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
@@ -1259,6 +1274,12 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
